--- a/s2n-harness/unit/testReport.xlsx
+++ b/s2n-harness/unit/testReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="1720" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,165 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>s2n_3des_harness</t>
+  </si>
+  <si>
+    <t>s2n_aead_aes_harness</t>
+  </si>
+  <si>
+    <t>s2n_aes_harness</t>
+  </si>
+  <si>
+    <t>s2n_cbc_verify_harness</t>
+  </si>
+  <si>
+    <t>s2n_cipher_suite_match_harness</t>
+  </si>
+  <si>
+    <t>s2n_client_disabled_harness</t>
+  </si>
+  <si>
+    <t>s2n_client_extensions_harness</t>
+  </si>
+  <si>
+    <t>s2n_drbg_harness</t>
+  </si>
+  <si>
+    <t>s2n_ecc_harness</t>
+  </si>
+  <si>
+    <t>s2n_fragmentation_coalescing_harness</t>
+  </si>
+  <si>
+    <t>s2n_handshake_harness</t>
+  </si>
+  <si>
+    <t>s2n_hash_harness</t>
+  </si>
+  <si>
+    <t>s2n_hmac_harness</t>
+  </si>
+  <si>
+    <t>s2n_malformed_handshake_harness</t>
+  </si>
+  <si>
+    <t>s2n_override_openssl_random_harness</t>
+  </si>
+  <si>
+    <t>s2n_pem_rsa_dhe_harness</t>
+  </si>
+  <si>
+    <t>s2n_random_harness</t>
+  </si>
+  <si>
+    <t>s2n_rc4_harness</t>
+  </si>
+  <si>
+    <t>s2n_record_size</t>
+  </si>
+  <si>
+    <t>s2n_record_harness</t>
+  </si>
+  <si>
+    <t>s2n_safety_harness</t>
+  </si>
+  <si>
+    <t>s2n_self_talk_alpn_harness</t>
+  </si>
+  <si>
+    <t>s2n_self_talk_harness</t>
+  </si>
+  <si>
+    <t>s2n_ssl_prf_harness</t>
+  </si>
+  <si>
+    <t>s2n_stuffer_base64_harness</t>
+  </si>
+  <si>
+    <t>s2n_stuffer_harness</t>
+  </si>
+  <si>
+    <t>s2n_stuffer_hex_harness</t>
+  </si>
+  <si>
+    <t>s2n_stuffer_text_harness</t>
+  </si>
+  <si>
+    <t>s2n_timer_harness</t>
+  </si>
+  <si>
+    <t>s2n_tls_prf_harness</t>
+  </si>
+  <si>
+    <t>s2n_tls_record_stuffer_harness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       s</t>
+  </si>
+  <si>
+    <t>Harness</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>cbmc -D__CPROVER_STRING_ABSTRACTION -I ./s2n -I ./s2n/api -I ./s2n/tests -I ./s2n/libcrypto-build/openssl/incl    ude -I ./s2n/libcrypto-build/openssl/crypto/engine -I ./s2n/libcrypto-build/openssl/crypto -I ./s2n/libcrypto-    build/openssl ./s2n-harness/unit/s2n_3des_harness.c ./s2n/utils/s2n_random.c ./s2n/utils/s2n_mem.c ./s2n/error    /s2n_errno.c ./s2n/stuffer/s2n_stuffer.c ./s2n/crypto/s2n_drbg.c ./s2n/utils/s2n_blob.c ./s2n/tls/s2n_connecti    on.c ./s2n/tls/s2n_record_write.c ./s2n/tls/s2n_record_read.c ./s2n/crypto/s2n_hmac.c ./s2n/utils/s2n_timer.c     ./s2n/crypto/s2n_hash.c ./s2n/tls/s2n_aead.c ./s2n/crypto/s2n_rsa.c ./s2n/crypto/s2n_dhe.c ./s2n/crypto/s2n_ec    c.c ./s2n/tls/s2n_cbc.c ./s2n/crypto/s2n_sequence.c ./s2n/utils/s2n_timer.c ./s2n/utils/s2n_safety.c ./s2n-lib    /openssl/evp.c ./s2n-lib/openssl/engine.c ./s2n-lib/CommonCrypto/CommonDigest.c ./s2n-lib/mman.c ./s2n-lib/std    lib.c --unwind 1</t>
+  </si>
+  <si>
+    <t>--bounds-check</t>
+  </si>
+  <si>
+    <t>--div-by-zero-check</t>
+  </si>
+  <si>
+    <t>--pointer-check</t>
+  </si>
+  <si>
+    <t>--memory-leak-check</t>
+  </si>
+  <si>
+    <t>--float-overflow-check</t>
+  </si>
+  <si>
+    <t>--signed-overflow-check</t>
+  </si>
+  <si>
+    <t>--unsigned-overflow-check</t>
+  </si>
+  <si>
+    <t>cbmc -D__CPROVER_STRING_ABSTRACTION -I ./s2n -I ./s2n/api -I ./s2n/libcrypto-build/openssl/include ./s2n-harness/unit/s2n_timer_harness.c ./s2n/utils/s2n_timer.c ./s2n/tls/s2n_config.c ./s2n/utils/s2n_mem.c ./s2n-lib/mach_time.c ./s2n-lib/mman.c ./s2n-lib/stdlib.c</t>
+  </si>
+  <si>
+    <t>54807684 variables, 176063057 clauses, SAT checker: instance is UNSATISFIABLE, Runtime decision procedure: 570.642s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +199,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,13 +559,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="135">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/s2n-harness/unit/testReport.xlsx
+++ b/s2n-harness/unit/testReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="29940" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>s2n_3des_harness</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>s2n_tls_record_stuffer_harness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       s</t>
   </si>
   <si>
     <t>Harness</t>
@@ -559,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -575,44 +572,44 @@
     <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="93" customWidth="1"/>
+    <col min="9" max="9" width="162.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="135">
+    </row>
+    <row r="2" spans="1:9" ht="75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -755,10 +752,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -771,14 +768,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
